--- a/document/8.27计划.xlsx
+++ b/document/8.27计划.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>8.27~9.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,26 @@
   </si>
   <si>
     <t>完整体验建筑升级、出门探索、被僵尸入侵、交易、实现完整体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>僵尸入侵系统已完成，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易系统未完成</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2626,10 +2646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H4:W81"/>
+  <dimension ref="H4:Y81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3037,7 +3057,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="77" spans="11:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="11:25" x14ac:dyDescent="0.3">
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4" t="s">
@@ -3055,11 +3075,14 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-    </row>
-    <row r="78" spans="11:23" x14ac:dyDescent="0.3">
+      <c r="Y77" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="11:25" x14ac:dyDescent="0.3">
       <c r="K78" s="4"/>
     </row>
-    <row r="79" spans="11:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="11:25" x14ac:dyDescent="0.3">
       <c r="K79" s="4" t="s">
         <v>0</v>
       </c>
@@ -3069,8 +3092,11 @@
       <c r="R79" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="11:23" x14ac:dyDescent="0.3">
+      <c r="Y79" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="11:25" x14ac:dyDescent="0.3">
       <c r="K80" s="4" t="s">
         <v>1</v>
       </c>
